--- a/Production_Notebook/Overview_Modeling_Results.xlsx
+++ b/Production_Notebook/Overview_Modeling_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.kollhof\Documents\IRONHACK_GitHub\DA_Midterm_Project\Production_Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABCF3CB-F472-4D4C-A5A7-9D9517C93A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343D235-67CC-43C5-AE34-F97C492BB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3348" yWindow="2856" windowWidth="7896" windowHeight="6000" xr2:uid="{D9871444-2237-4054-B2A2-BF442790FA2A}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9060" xr2:uid="{D9871444-2237-4054-B2A2-BF442790FA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="20">
-  <si>
-    <t>filtering on</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
   <si>
     <t>NOT filtering on</t>
   </si>
@@ -104,6 +101,15 @@
     <t>qc_voltage_mean
 qc_puls_mean
 ns2_curve</t>
+  </si>
+  <si>
+    <t>with Categoricals</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -480,15 +486,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D3A7F3-A2B6-47D9-9290-A45B80186601}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
@@ -503,40 +509,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -544,16 +550,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>6969</v>
@@ -579,16 +588,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="1">
         <v>6969</v>
@@ -614,16 +626,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
         <v>6969</v>
@@ -649,13 +664,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1">
         <v>42</v>
@@ -681,13 +699,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="1">
         <v>42</v>
@@ -713,13 +734,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
         <v>6969</v>
@@ -745,13 +769,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G8" s="1">
         <v>6969</v>
@@ -777,13 +804,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G9" s="1">
         <v>42</v>
@@ -809,13 +839,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1">
         <v>42</v>
@@ -841,13 +874,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1">
         <v>42</v>
@@ -873,13 +909,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
         <v>42</v>
@@ -905,13 +944,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1">
         <v>6969</v>
@@ -937,13 +979,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1">
         <v>6969</v>
@@ -969,13 +1014,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1">
         <v>6969</v>
@@ -1001,16 +1049,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16" s="1">
         <v>6969</v>
@@ -1036,16 +1087,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1">
         <v>6969</v>
@@ -1071,16 +1125,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G18" s="1">
         <v>42</v>
@@ -1106,16 +1163,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1">
         <v>42</v>
@@ -1136,9 +1196,39 @@
         <v>20.27</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1">
+        <v>42</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="J20" s="1">
+        <v>589.91999999999996</v>
+      </c>
+      <c r="K20" s="1">
+        <v>24.29</v>
+      </c>
+      <c r="L20" s="1">
+        <v>18.11</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">

--- a/Production_Notebook/Overview_Modeling_Results.xlsx
+++ b/Production_Notebook/Overview_Modeling_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.kollhof\Documents\IRONHACK_GitHub\DA_Midterm_Project\Production_Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0343D235-67CC-43C5-AE34-F97C492BB723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7108054-97D0-4BA7-939F-958721BB2457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9060" xr2:uid="{D9871444-2237-4054-B2A2-BF442790FA2A}"/>
+    <workbookView xWindow="-9768" yWindow="5280" windowWidth="17280" windowHeight="9060" xr2:uid="{D9871444-2237-4054-B2A2-BF442790FA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D3A7F3-A2B6-47D9-9290-A45B80186601}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,10 +495,11 @@
     <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6" style="1" bestFit="1" customWidth="1"/>
@@ -1215,20 +1216,20 @@
       <c r="G20" s="1">
         <v>42</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.79</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.79</v>
+      <c r="H20" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.8</v>
       </c>
       <c r="J20" s="1">
-        <v>589.91999999999996</v>
+        <v>538.54</v>
       </c>
       <c r="K20" s="1">
-        <v>24.29</v>
+        <v>23.21</v>
       </c>
       <c r="L20" s="1">
-        <v>18.11</v>
+        <v>17.53</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">

--- a/Production_Notebook/Overview_Modeling_Results.xlsx
+++ b/Production_Notebook/Overview_Modeling_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.kollhof\Documents\IRONHACK_GitHub\DA_Midterm_Project\Production_Notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7108054-97D0-4BA7-939F-958721BB2457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A1CD8-3D6B-41FE-92BD-FD426ED0D0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9768" yWindow="5280" windowWidth="17280" windowHeight="9060" xr2:uid="{D9871444-2237-4054-B2A2-BF442790FA2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{D9871444-2237-4054-B2A2-BF442790FA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>NOT filtering on</t>
   </si>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D3A7F3-A2B6-47D9-9290-A45B80186601}">
-  <dimension ref="A1:L139"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,7 +548,7 @@
     </row>
     <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>15</v>
@@ -569,27 +569,27 @@
         <v>6969</v>
       </c>
       <c r="H2" s="5">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="I2" s="5">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="J2" s="5">
-        <v>576.87</v>
+        <v>656.47</v>
       </c>
       <c r="K2" s="5">
-        <v>24.02</v>
+        <v>25.62</v>
       </c>
       <c r="L2" s="5">
-        <v>17.84</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
@@ -613,18 +613,18 @@
         <v>0.77</v>
       </c>
       <c r="J3" s="5">
-        <v>656.47</v>
+        <v>642.54</v>
       </c>
       <c r="K3" s="5">
-        <v>25.62</v>
+        <v>25.35</v>
       </c>
       <c r="L3" s="5">
-        <v>19.3</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
@@ -638,34 +638,31 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" s="1">
-        <v>6969</v>
+        <v>42</v>
       </c>
       <c r="H4" s="5">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="I4" s="5">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="J4" s="5">
-        <v>642.54</v>
+        <v>598.17999999999995</v>
       </c>
       <c r="K4" s="5">
-        <v>25.35</v>
+        <v>24.46</v>
       </c>
       <c r="L4" s="5">
-        <v>19.13</v>
+        <v>18.13</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
@@ -680,62 +677,62 @@
         <v>42</v>
       </c>
       <c r="H5" s="5">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="5">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J5" s="5">
-        <v>598.17999999999995</v>
+        <v>576.21</v>
       </c>
       <c r="K5" s="5">
-        <v>24.46</v>
+        <v>24</v>
       </c>
       <c r="L5" s="5">
-        <v>18.13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="1">
-        <v>42</v>
+        <v>6969</v>
       </c>
       <c r="H6" s="5">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="I6" s="5">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="J6" s="5">
-        <v>576.21</v>
+        <v>671.56</v>
       </c>
       <c r="K6" s="5">
-        <v>24</v>
+        <v>25.91</v>
       </c>
       <c r="L6" s="5">
-        <v>17.96</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
@@ -756,18 +753,18 @@
         <v>0.76</v>
       </c>
       <c r="J7" s="5">
-        <v>671.56</v>
+        <v>658.91</v>
       </c>
       <c r="K7" s="5">
-        <v>25.91</v>
+        <v>25.67</v>
       </c>
       <c r="L7" s="5">
-        <v>19.27</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
@@ -782,30 +779,30 @@
         <v>16</v>
       </c>
       <c r="G8" s="1">
-        <v>6969</v>
+        <v>42</v>
       </c>
       <c r="H8" s="5">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="I8" s="5">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J8" s="5">
-        <v>658.91</v>
+        <v>664.91</v>
       </c>
       <c r="K8" s="5">
-        <v>25.67</v>
+        <v>25.79</v>
       </c>
       <c r="L8" s="5">
-        <v>19.2</v>
+        <v>19.45</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
@@ -826,18 +823,18 @@
         <v>0.77</v>
       </c>
       <c r="J9" s="5">
-        <v>664.91</v>
+        <v>679.62</v>
       </c>
       <c r="K9" s="5">
-        <v>25.79</v>
+        <v>26.07</v>
       </c>
       <c r="L9" s="5">
-        <v>19.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -848,34 +845,34 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G10" s="1">
         <v>42</v>
       </c>
       <c r="H10" s="5">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="I10" s="5">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="J10" s="5">
-        <v>679.62</v>
+        <v>618.20000000000005</v>
       </c>
       <c r="K10" s="5">
-        <v>26.07</v>
+        <v>24.86</v>
       </c>
       <c r="L10" s="5">
-        <v>19.55</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -896,18 +893,18 @@
         <v>0.79</v>
       </c>
       <c r="J11" s="5">
-        <v>618.20000000000005</v>
+        <v>608.99</v>
       </c>
       <c r="K11" s="5">
-        <v>24.86</v>
+        <v>24.68</v>
       </c>
       <c r="L11" s="5">
-        <v>18.88</v>
+        <v>18.739999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
@@ -922,27 +919,27 @@
         <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>42</v>
+        <v>6969</v>
       </c>
       <c r="H12" s="5">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="I12" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="J12" s="5">
-        <v>608.99</v>
-      </c>
-      <c r="K12" s="5">
-        <v>24.68</v>
-      </c>
-      <c r="L12" s="5">
-        <v>18.739999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.78</v>
+      </c>
+      <c r="J12" s="1">
+        <v>604.44000000000005</v>
+      </c>
+      <c r="K12" s="1">
+        <v>24.59</v>
+      </c>
+      <c r="L12" s="1">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>15</v>
@@ -953,34 +950,34 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="1">
         <v>6969</v>
       </c>
       <c r="H13" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.78</v>
+        <v>0.75</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.75</v>
       </c>
       <c r="J13" s="1">
-        <v>604.44000000000005</v>
+        <v>702.92</v>
       </c>
       <c r="K13" s="1">
-        <v>24.59</v>
+        <v>26.51</v>
       </c>
       <c r="L13" s="1">
-        <v>18.399999999999999</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>20</v>
@@ -994,25 +991,25 @@
       <c r="G14" s="1">
         <v>6969</v>
       </c>
-      <c r="H14" s="5">
-        <v>0.75</v>
+      <c r="H14" s="1">
+        <v>0.74</v>
       </c>
       <c r="I14" s="1">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="J14" s="1">
-        <v>702.92</v>
+        <v>715.1</v>
       </c>
       <c r="K14" s="1">
-        <v>26.51</v>
+        <v>26.74</v>
       </c>
       <c r="L14" s="1">
-        <v>20.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -1020,34 +1017,37 @@
       <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>18</v>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="1">
         <v>6969</v>
       </c>
       <c r="H15" s="1">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="I15" s="1">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="J15" s="1">
-        <v>715.1</v>
+        <v>608.75</v>
       </c>
       <c r="K15" s="1">
-        <v>26.74</v>
+        <v>24.67</v>
       </c>
       <c r="L15" s="1">
-        <v>20.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1061,69 +1061,69 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
+      <c r="F16" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G16" s="1">
         <v>6969</v>
       </c>
       <c r="H16" s="1">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="I16" s="1">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="J16" s="1">
-        <v>608.75</v>
+        <v>715.1</v>
       </c>
       <c r="K16" s="1">
-        <v>24.67</v>
+        <v>26.74</v>
       </c>
       <c r="L16" s="1">
-        <v>18.41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>6</v>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1">
+        <v>42</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="J17" s="1">
+        <v>653.86</v>
+      </c>
+      <c r="K17" s="1">
+        <v>25.57</v>
+      </c>
+      <c r="L17" s="1">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>18</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6969</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.74</v>
-      </c>
-      <c r="J17" s="1">
-        <v>715.1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>26.74</v>
-      </c>
-      <c r="L17" s="1">
-        <v>20.13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -1138,692 +1138,654 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" s="1">
         <v>42</v>
       </c>
       <c r="H18" s="1">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I18" s="1">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J18" s="1">
-        <v>653.86</v>
+        <v>698.37</v>
       </c>
       <c r="K18" s="1">
-        <v>25.57</v>
+        <v>26.43</v>
       </c>
       <c r="L18" s="1">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1">
         <v>42</v>
       </c>
-      <c r="H19" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.76</v>
+      <c r="H19" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.8</v>
       </c>
       <c r="J19" s="1">
-        <v>698.37</v>
+        <v>538.54</v>
       </c>
       <c r="K19" s="1">
-        <v>26.43</v>
+        <v>23.21</v>
       </c>
       <c r="L19" s="1">
-        <v>20.27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1">
-        <v>42</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="J20" s="1">
-        <v>538.54</v>
-      </c>
-      <c r="K20" s="1">
-        <v>23.21</v>
-      </c>
-      <c r="L20" s="1">
-        <v>17.53</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
         <v>139</v>
       </c>
     </row>
